--- a/Collections/United_Kingdom/#United_Kingdom#After_DecimalDay#Regular#[1968-present]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#United_Kingdom#After_DecimalDay#Regular#[1968-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B15D6D-FD00-4D3B-8F65-A80F8C5011C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C1552D-9406-4117-AB21-1077A715023A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="halfpence" sheetId="26" r:id="rId1"/>
@@ -1985,6 +1985,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2001,23 +2004,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="163">
+  <dxfs count="134">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3067,239 +3068,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3328,9 +3096,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="162"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="161" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3639,7 +3407,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3653,16 +3421,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -3671,8 +3439,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -3967,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5060,7 +4828,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18">
+  <conditionalFormatting sqref="F8 F6 F10 F12 F14 F16 F18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5073,11 +4841,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18">
-    <cfRule type="containsText" dxfId="159" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11 F13 F15 F17">
+  <conditionalFormatting sqref="F11 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5090,7 +4858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11 F13 F15 F17">
-    <cfRule type="containsText" dxfId="158" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5107,7 +4875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="157" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5124,7 +4892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="156" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5228,7 +4996,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5242,16 +5010,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -5260,8 +5028,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -5772,7 +5540,7 @@
         <v>48</v>
       </c>
       <c r="F23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6514,7 +6282,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="39">
+      <c r="E56" s="33">
         <v>33087</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -6536,7 +6304,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="39">
+      <c r="E57" s="33">
         <v>45000</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -6657,7 +6425,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F29 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F8 F6 F10 F12 F14 F16 F18 F20 F22 F24 F26 F29 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6670,11 +6438,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F29 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
-    <cfRule type="containsText" dxfId="155" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F9 F13 F15 F17 F19 F21 F23 F25 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F9 F11 F13 F15 F17 F19 F21 F23 F25 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6687,7 +6455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11 F13 F15 F17 F19 F21 F23 F25 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
-    <cfRule type="containsText" dxfId="154" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6704,7 +6472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="153" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6721,7 +6489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="152" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6738,12 +6506,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="151" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="150" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6772,7 +6540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="149" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6789,7 +6557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="148" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6806,7 +6574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="147" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6835,7 +6603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="144" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6852,12 +6620,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="143" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="141" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6874,7 +6642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="140" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6892,7 +6660,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57:XFD57"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6906,16 +6674,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -6924,8 +6692,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -7028,7 +6796,7 @@
         <v>85</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
@@ -7388,7 +7156,7 @@
         <v>97</v>
       </c>
       <c r="F21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8303,7 +8071,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="39">
+      <c r="E57" s="33">
         <v>36000</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -8325,7 +8093,7 @@
         <v>69</v>
       </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="33" t="s">
         <v>288</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -8347,14 +8115,14 @@
         <v>69</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="39">
+      <c r="E59" s="33">
         <v>45000</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G59" s="5" t="str">
-        <f t="shared" ref="G58:G61" si="3">IF(OR(AND(F59&gt;1,F59&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G59:G61" si="3">IF(OR(AND(F59&gt;1,F59&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -8391,7 +8159,7 @@
         <v>69</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="39">
+      <c r="E61" s="33">
         <v>12000</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -8452,7 +8220,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F10 F12 F14 F16 F20 F22 F24 F26 F29 F31 F33 F36 F38 F40 F42 F44 F51 F53 F56 F46 F48:F49">
+  <conditionalFormatting sqref="F10 F6 F12 F14 F16 F20 F22 F24 F26 F29 F31 F33 F36 F38 F40 F42 F44 F51 F53 F56 F46 F48:F49">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8465,11 +8233,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F10 F12 F14 F16 F20 F22 F24 F26 F29 F31 F33 F36 F38 F40 F42 F44 F51 F53 F56 F46 F48:F49">
-    <cfRule type="containsText" dxfId="137" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F13 F15 F21 F23 F25 F30 F32 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47">
+  <conditionalFormatting sqref="F13 F11 F15 F21 F23 F25 F30 F32 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8482,7 +8250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15 F21 F23 F25 F30 F32 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47">
-    <cfRule type="containsText" dxfId="136" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8499,7 +8267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="containsText" dxfId="135" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8516,7 +8284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="134" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8533,7 +8301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="133" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8550,7 +8318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="132" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8567,7 +8335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="131" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8584,7 +8352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="130" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8601,7 +8369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="129" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8618,7 +8386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="128" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8635,7 +8403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="127" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8676,12 +8444,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="123" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="122" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8698,7 +8466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="120" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8715,12 +8483,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="119" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8737,7 +8505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8751,11 +8519,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57:G57"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8769,16 +8537,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -8787,8 +8555,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -9512,7 +9280,7 @@
         <v>149</v>
       </c>
       <c r="F28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10269,7 +10037,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="39">
+      <c r="E56" s="33">
         <v>33000</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -10291,7 +10059,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="39">
+      <c r="E57" s="33">
         <v>45000</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -10418,7 +10186,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F10 F12 F14 F22 F24 F27 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F10 F6 F12 F14 F22 F24 F27 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10431,11 +10199,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F10 F12 F14 F22 F24 F27 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
-    <cfRule type="containsText" dxfId="116" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F15 F23 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F15 F13 F23 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10448,7 +10216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F15 F23 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
-    <cfRule type="containsText" dxfId="115" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10465,7 +10233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="containsText" dxfId="114" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10482,7 +10250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="113" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10499,7 +10267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="112" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10516,7 +10284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10533,7 +10301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="110" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10550,7 +10318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="109" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10567,7 +10335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10584,7 +10352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="107" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10601,7 +10369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="106" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10618,7 +10386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="105" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10635,7 +10403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="104" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10652,7 +10420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="103" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10669,7 +10437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="102" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10686,11 +10454,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="101" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28 F26">
+  <conditionalFormatting sqref="F26 F28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10703,7 +10471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26 F28">
-    <cfRule type="containsText" dxfId="100" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10720,7 +10488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="99" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10737,7 +10505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="98" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10754,7 +10522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10771,7 +10539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="96" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10788,7 +10556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="95" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10805,7 +10573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="94" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10822,7 +10590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10854,16 +10622,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -10872,8 +10640,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -12348,7 +12116,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="39">
+      <c r="E56" s="33">
         <v>33000</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -12370,7 +12138,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="39">
+      <c r="E57" s="33">
         <v>45000</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -12399,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f t="shared" ref="G57:G60" si="4">IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G58:G60" si="4">IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -12497,7 +12265,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F31 F33 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F33 F31 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12510,11 +12278,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31 F33 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
-    <cfRule type="containsText" dxfId="92" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36 F32 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F32 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12527,7 +12295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32 F36 F38 F40 F42 F49 F51 F54 F44 F46">
-    <cfRule type="containsText" dxfId="91" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12544,7 +12312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="90" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12561,7 +12329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="89" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12578,7 +12346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="88" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12595,7 +12363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="86" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12611,7 +12379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12636,11 +12404,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="85" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F9 F11 F15">
+  <conditionalFormatting sqref="F5 F3 F9 F11 F15">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12653,7 +12421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="84" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12670,12 +12438,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F27">
-    <cfRule type="containsText" dxfId="83" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="82" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12692,12 +12460,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F5 F9 F11 F15">
-    <cfRule type="containsText" dxfId="81" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
-    <cfRule type="containsText" dxfId="80" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12714,7 +12482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="79" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12731,7 +12499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="78" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12748,7 +12516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12765,7 +12533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12782,7 +12550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12799,7 +12567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12816,7 +12584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12833,7 +12601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12850,7 +12618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12867,7 +12635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12884,7 +12652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12901,7 +12669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12933,16 +12701,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -12951,8 +12719,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -13370,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f t="shared" ref="G17:G57" si="1">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G17:G55" si="1">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="K17" s="23"/>
@@ -14390,7 +14158,7 @@
         <v>69</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="39">
+      <c r="E55" s="33">
         <v>53500</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -14412,7 +14180,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="39">
+      <c r="E56" s="33">
         <v>33000</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -14463,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f t="shared" ref="G57:G59" si="3">IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G58:G59" si="3">IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -14561,7 +14329,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F17 F19 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53">
+  <conditionalFormatting sqref="F19 F17 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14586,16 +14354,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 F19 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53">
-    <cfRule type="containsText" dxfId="63" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="62" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54">
+  <conditionalFormatting sqref="F22 F20 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14608,7 +14376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54">
-    <cfRule type="containsText" dxfId="61" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14625,7 +14393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="60" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14690,7 +14458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:F58">
-    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14707,7 +14475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14724,27 +14492,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14776,16 +14544,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -14794,8 +14562,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -16237,7 +16005,7 @@
         <v>69</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="39">
+      <c r="E55" s="33">
         <v>33000</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -16399,11 +16167,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F11 F13 F15">
+  <conditionalFormatting sqref="F11 F5 F13 F15">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16415,7 +16183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F12 F14 F16">
+  <conditionalFormatting sqref="F12 F4 F14 F16">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16428,16 +16196,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5 F11 F13 F15">
-    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4 F12 F14 F16">
-    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F17 F34 F36 F38 F40 F42 F44 F48 F50 F52">
+  <conditionalFormatting sqref="F17 F32 F34 F36 F38 F40 F42 F44 F48 F50 F52">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16449,7 +16217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18 F20 F33 F35 F37 F39 F41 F43 F49 F51">
+  <conditionalFormatting sqref="F20 F18 F33 F35 F37 F39 F41 F43 F49 F51">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16474,21 +16242,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17 F32 F34 F36 F38 F40 F42 F44 F48 F50 F52">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18 F20 F33 F35 F37 F39 F41 F43 F49 F51">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23 F25 F27">
+  <conditionalFormatting sqref="F23 F21 F25 F27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16501,11 +16269,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F23 F25 F27">
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24 F26 F28">
+  <conditionalFormatting sqref="F24 F22 F26 F28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16518,7 +16286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16535,7 +16303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="37" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16552,7 +16320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16569,7 +16337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16586,7 +16354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16615,12 +16383,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16637,7 +16405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16669,16 +16437,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -16687,8 +16455,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -18275,7 +18043,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F19 F21 F23 F25 F27:F28 F30 F32 F36 F38 F40 F42 F46 F48 F50">
+  <conditionalFormatting sqref="F21 F19 F23 F25 F27:F28 F30 F32 F36 F38 F40 F42 F46 F48 F50">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18300,16 +18068,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 F21 F23 F25 F27:F28 F30 F32 F36 F38 F40 F42 F46 F48 F50">
-    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22 F24 F26 F29 F31 F35 F37 F39 F41 F43 F47 F49 F51 F45 F53">
+  <conditionalFormatting sqref="F22 F20 F24 F26 F29 F31 F35 F37 F39 F41 F43 F47 F49 F51 F45 F53">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18322,7 +18090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22 F24 F26 F29 F31 F35 F37 F39 F41 F43 F47 F49 F51 F45 F53">
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18339,7 +18107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18368,12 +18136,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18390,7 +18158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18407,7 +18175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18424,7 +18192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18477,12 +18245,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18499,7 +18267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18516,17 +18284,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18540,8 +18308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
@@ -18558,16 +18326,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
@@ -18576,8 +18344,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
@@ -20060,7 +19828,7 @@
         <v>368</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="39">
+      <c r="E53" s="33">
         <v>53000</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -20088,7 +19856,7 @@
         <v>368</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="39">
+      <c r="E54" s="33">
         <v>54000</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -20115,7 +19883,7 @@
         <v>368</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="33" t="s">
         <v>288</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -20149,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="5" t="str">
-        <f t="shared" ref="G54:G59" si="4">IF(OR(AND(F56&gt;1,F56&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G56:G59" si="4">IF(OR(AND(F56&gt;1,F56&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="J56" s="23"/>
@@ -20245,7 +20013,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F33 F35 F37 F39 F41 F44 F46 F48 F50 F52">
+  <conditionalFormatting sqref="F35 F33 F37 F39 F41 F44 F46 F48 F50 F52">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20257,7 +20025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34 F36 F38 F40 F42:F43 F45 F47 F49 F51">
+  <conditionalFormatting sqref="F34 F32 F36 F38 F40 F42:F43 F45 F47 F49 F51">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20270,12 +20038,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33 F35 F37 F39 F41 F44 F46 F48 F50 F52">
-    <cfRule type="containsText" dxfId="12" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32 F34 F36 F38 F40 F42:F43 F45 F47 F49 F51">
-    <cfRule type="containsText" dxfId="11" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20292,7 +20060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20321,12 +20089,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20355,12 +20123,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20377,7 +20145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/United_Kingdom/#United_Kingdom#After_DecimalDay#Regular#[1968-present]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#United_Kingdom#After_DecimalDay#Regular#[1968-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C1552D-9406-4117-AB21-1077A715023A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB0EE29-51FB-4525-BD94-7FAD3FACB658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="halfpence" sheetId="26" r:id="rId1"/>
@@ -4828,7 +4828,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8 F6 F10 F12 F14 F16 F18">
+  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4845,7 +4845,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F9 F11 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6425,7 +6425,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8 F6 F10 F12 F14 F16 F18 F20 F22 F24 F26 F29 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F29 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6442,7 +6442,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11 F13 F15 F17 F19 F21 F23 F25 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F11 F9 F13 F15 F17 F19 F21 F23 F25 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6656,11 +6656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7921,7 +7921,7 @@
         <v>126</v>
       </c>
       <c r="F50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8220,7 +8220,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10 F6 F12 F14 F16 F20 F22 F24 F26 F29 F31 F33 F36 F38 F40 F42 F44 F51 F53 F56 F46 F48:F49">
+  <conditionalFormatting sqref="F6 F10 F12 F14 F16 F20 F22 F24 F26 F29 F31 F33 F36 F38 F40 F42 F44 F51 F53 F56 F46 F48:F49">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8237,7 +8237,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F11 F15 F21 F23 F25 F30 F32 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47">
+  <conditionalFormatting sqref="F11 F13 F15 F21 F23 F25 F30 F32 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8519,7 +8519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10186,7 +10186,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10 F6 F12 F14 F22 F24 F27 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F6 F10 F12 F14 F22 F24 F27 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10203,7 +10203,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15 F13 F23 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F13 F15 F23 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10458,7 +10458,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F28">
+  <conditionalFormatting sqref="F28 F26">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12265,7 +12265,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F33 F31 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F31 F33 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12282,7 +12282,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F36 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F36 F32 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12379,7 +12379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12408,7 +12408,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F9 F11 F15">
+  <conditionalFormatting sqref="F3 F5 F9 F11 F15">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14329,7 +14329,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F19 F17 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53">
+  <conditionalFormatting sqref="F17 F19 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14363,7 +14363,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F20 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54">
+  <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16171,7 +16171,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F5 F13 F15">
+  <conditionalFormatting sqref="F5 F11 F13 F15">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16183,7 +16183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F4 F14 F16">
+  <conditionalFormatting sqref="F4 F12 F14 F16">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16205,7 +16205,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17 F32 F34 F36 F38 F40 F42 F44 F48 F50 F52">
+  <conditionalFormatting sqref="F32 F17 F34 F36 F38 F40 F42 F44 F48 F50 F52">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16217,7 +16217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F18 F33 F35 F37 F39 F41 F43 F49 F51">
+  <conditionalFormatting sqref="F18 F20 F33 F35 F37 F39 F41 F43 F49 F51">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16256,7 +16256,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23 F21 F25 F27">
+  <conditionalFormatting sqref="F21 F23 F25 F27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16273,7 +16273,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F22 F26 F28">
+  <conditionalFormatting sqref="F22 F24 F26 F28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18043,7 +18043,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F21 F19 F23 F25 F27:F28 F30 F32 F36 F38 F40 F42 F46 F48 F50">
+  <conditionalFormatting sqref="F19 F21 F23 F25 F27:F28 F30 F32 F36 F38 F40 F42 F46 F48 F50">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18077,7 +18077,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F20 F24 F26 F29 F31 F35 F37 F39 F41 F43 F47 F49 F51 F45 F53">
+  <conditionalFormatting sqref="F20 F22 F24 F26 F29 F31 F35 F37 F39 F41 F43 F47 F49 F51 F45 F53">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20013,7 +20013,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F35 F33 F37 F39 F41 F44 F46 F48 F50 F52">
+  <conditionalFormatting sqref="F33 F35 F37 F39 F41 F44 F46 F48 F50 F52">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20025,7 +20025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F32 F36 F38 F40 F42:F43 F45 F47 F49 F51">
+  <conditionalFormatting sqref="F32 F34 F36 F38 F40 F42:F43 F45 F47 F49 F51">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/United_Kingdom/#United_Kingdom#After_DecimalDay#Regular#[1968-present]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#United_Kingdom#After_DecimalDay#Regular#[1968-present]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB0EE29-51FB-4525-BD94-7FAD3FACB658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC2259C-70E0-47E1-97A6-03BC5A90B6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="33150" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="halfpence" sheetId="26" r:id="rId1"/>
@@ -4828,7 +4828,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18">
+  <conditionalFormatting sqref="F8 F6 F10 F12 F14 F16 F18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4845,7 +4845,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9 F11 F13 F15 F17">
+  <conditionalFormatting sqref="F11 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6425,7 +6425,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F29 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F8 F6 F10 F12 F14 F16 F18 F20 F22 F24 F26 F29 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6442,7 +6442,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F9 F13 F15 F17 F19 F21 F23 F25 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F9 F11 F13 F15 F17 F19 F21 F23 F25 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6657,10 +6657,10 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7397,7 +7397,7 @@
         <v>108</v>
       </c>
       <c r="F30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8220,7 +8220,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F10 F12 F14 F16 F20 F22 F24 F26 F29 F31 F33 F36 F38 F40 F42 F44 F51 F53 F56 F46 F48:F49">
+  <conditionalFormatting sqref="F10 F6 F12 F14 F16 F20 F22 F24 F26 F29 F31 F33 F36 F38 F40 F42 F44 F51 F53 F56 F46 F48:F49">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8237,7 +8237,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F13 F15 F21 F23 F25 F30 F32 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47">
+  <conditionalFormatting sqref="F13 F11 F15 F21 F23 F25 F30 F32 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10186,7 +10186,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6 F10 F12 F14 F22 F24 F27 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F10 F6 F12 F14 F22 F24 F27 F31 F33 F35 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10203,7 +10203,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13 F15 F23 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F15 F13 F23 F30 F32 F34 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10458,7 +10458,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28 F26">
+  <conditionalFormatting sqref="F26 F28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12265,7 +12265,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F31 F33 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
+  <conditionalFormatting sqref="F33 F31 F37 F39 F41 F43 F50 F52 F55 F45 F47:F48">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12282,7 +12282,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36 F32 F38 F40 F42 F49 F51 F54 F44 F46">
+  <conditionalFormatting sqref="F32 F36 F38 F40 F42 F49 F51 F54 F44 F46">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12379,7 +12379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12408,7 +12408,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F9 F11 F15">
+  <conditionalFormatting sqref="F5 F3 F9 F11 F15">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14329,7 +14329,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F17 F19 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53">
+  <conditionalFormatting sqref="F19 F17 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14363,7 +14363,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54">
+  <conditionalFormatting sqref="F22 F20 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16171,7 +16171,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F11 F13 F15">
+  <conditionalFormatting sqref="F11 F5 F13 F15">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16183,7 +16183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F12 F14 F16">
+  <conditionalFormatting sqref="F12 F4 F14 F16">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16205,7 +16205,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F17 F34 F36 F38 F40 F42 F44 F48 F50 F52">
+  <conditionalFormatting sqref="F17 F32 F34 F36 F38 F40 F42 F44 F48 F50 F52">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16217,7 +16217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18 F20 F33 F35 F37 F39 F41 F43 F49 F51">
+  <conditionalFormatting sqref="F20 F18 F33 F35 F37 F39 F41 F43 F49 F51">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16256,7 +16256,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 F23 F25 F27">
+  <conditionalFormatting sqref="F23 F21 F25 F27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16273,7 +16273,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22 F24 F26 F28">
+  <conditionalFormatting sqref="F24 F22 F26 F28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18043,7 +18043,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F19 F21 F23 F25 F27:F28 F30 F32 F36 F38 F40 F42 F46 F48 F50">
+  <conditionalFormatting sqref="F21 F19 F23 F25 F27:F28 F30 F32 F36 F38 F40 F42 F46 F48 F50">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18077,7 +18077,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22 F24 F26 F29 F31 F35 F37 F39 F41 F43 F47 F49 F51 F45 F53">
+  <conditionalFormatting sqref="F22 F20 F24 F26 F29 F31 F35 F37 F39 F41 F43 F47 F49 F51 F45 F53">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20013,7 +20013,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F33 F35 F37 F39 F41 F44 F46 F48 F50 F52">
+  <conditionalFormatting sqref="F35 F33 F37 F39 F41 F44 F46 F48 F50 F52">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -20025,7 +20025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34 F36 F38 F40 F42:F43 F45 F47 F49 F51">
+  <conditionalFormatting sqref="F34 F32 F36 F38 F40 F42:F43 F45 F47 F49 F51">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
